--- a/data/trans_bre/P16B01-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B01-Provincia-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B01-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B01-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,57</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -614,22 +614,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,95</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-8,86%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,54%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-39,11; 27,84</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-3,12; 47,5</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-51,6; 60,95</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,84; 131,64</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,35</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,55%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,4%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,5; 20,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,59; 13,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,48; 29,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,19; 31,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,05; 22,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,68; 56,17</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-33,8</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,72</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,43%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,4%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,87; 2,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,26; 31,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,39; 6,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,83; 2,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,49; 61,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,85; 6,76</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,62</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,46</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,77%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,37; 27,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,0; 24,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,02; 39,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,99; 53,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,82; 42,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,29; 79,87</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,74</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,99</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,08</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,95%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,14%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,67%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,89; 29,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,41; 22,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,81; 24,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,55; 60,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,08; 37,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,44; 47,09</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,06</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,59</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,5%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,76; 34,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,73; 29,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,3; 49,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,65; 67,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,27; 49,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,35; 214,44</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,15</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,58</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,52%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,53; 19,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,27; 23,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,84; 31,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,06; 27,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,93; 46,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,13; 98,25</t>
         </is>
       </c>
     </row>
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,89</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,74%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,93%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,13%</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,25; 12,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,19; 15,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,43; 16,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,19; 18,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,36; 24,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,09; 28,71</t>
         </is>
       </c>
     </row>
@@ -1244,32 +1244,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,23</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,75%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,36%</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,59; 6,4</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,27; 9,67</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 14,95</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,2; 8,94</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,22; 14,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,02; 27,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B01-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B01-Provincia-trans_bre.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>10,46</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,02%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,1; 31,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,42; 67,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,62</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 24,11</t>
+          <t>-16,8; 25,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 42,32</t>
+          <t>-19,85; 44,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_bre/P16B01-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B01-Provincia-trans_bre.xlsx
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-39,11; 27,84</t>
+          <t>-36,24; 26,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,1; 31,64</t>
+          <t>-14,15; 31,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 47,5</t>
+          <t>-3,79; 44,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-51,6; 60,95</t>
+          <t>-49,97; 58,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,42; 67,71</t>
+          <t>-20,45; 65,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 131,64</t>
+          <t>-5,7; 126,26</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-24,5; 20,16</t>
+          <t>-23,87; 20,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,59; 13,29</t>
+          <t>-23,57; 11,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,48; 29,23</t>
+          <t>-18,02; 28,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-28,19; 31,36</t>
+          <t>-27,17; 32,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,05; 22,06</t>
+          <t>-30,16; 19,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,68; 56,17</t>
+          <t>-22,57; 51,59</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-78,87; 2,25</t>
+          <t>-71,13; 6,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 31,55</t>
+          <t>-10,9; 30,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-48,39; 6,06</t>
+          <t>-47,54; 5,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-82,83; 2,86</t>
+          <t>-71,75; 7,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 61,17</t>
+          <t>-12,99; 58,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-56,85; 6,76</t>
+          <t>-53,02; 7,76</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-25,37; 27,66</t>
+          <t>-26,49; 30,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,8; 25,22</t>
+          <t>-18,57; 26,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 39,63</t>
+          <t>-3,46; 39,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,99; 53,54</t>
+          <t>-33,88; 64,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,85; 44,13</t>
+          <t>-21,52; 46,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 79,87</t>
+          <t>-4,1; 80,92</t>
         </is>
       </c>
     </row>
@@ -962,39 +962,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-38,89; 29,3</t>
+          <t>-40,3; 29,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-33,41; 22,24</t>
+          <t>-33,42; 20,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-37,81; 24,91</t>
+          <t>-33,71; 26,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-52,55; 60,55</t>
+          <t>-52,84; 65,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-42,08; 37,57</t>
+          <t>-41,08; 34,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-45,44; 47,09</t>
+          <t>-41,49; 50,82</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-29,76; 34,71</t>
+          <t>-28,24; 34,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 29,3</t>
+          <t>-11,77; 30,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-18,3; 49,21</t>
+          <t>-15,18; 45,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-35,65; 67,57</t>
+          <t>-33,74; 63,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,27; 49,45</t>
+          <t>-13,56; 52,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-28,35; 214,44</t>
+          <t>-24,56; 199,79</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 19,69</t>
+          <t>-11,28; 21,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-17,27; 23,23</t>
+          <t>-17,14; 22,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 31,86</t>
+          <t>-6,85; 34,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 27,8</t>
+          <t>-11,84; 29,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-22,93; 46,51</t>
+          <t>-23,45; 44,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 98,25</t>
+          <t>-11,7; 97,94</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-19,25; 12,08</t>
+          <t>-17,34; 13,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-24,19; 15,61</t>
+          <t>-25,03; 15,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-20,43; 16,56</t>
+          <t>-20,45; 16,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,19; 18,04</t>
+          <t>-20,75; 20,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-29,36; 24,78</t>
+          <t>-29,03; 27,22</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-28,09; 28,71</t>
+          <t>-26,78; 29,68</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 6,4</t>
+          <t>-10,11; 6,51</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 9,67</t>
+          <t>-5,6; 10,33</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 14,95</t>
+          <t>-2,79; 14,72</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 8,94</t>
+          <t>-12,78; 8,91</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 14,57</t>
+          <t>-7,45; 16,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 27,79</t>
+          <t>-4,4; 26,8</t>
         </is>
       </c>
     </row>
